--- a/saucedemo test.xlsx
+++ b/saucedemo test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900FCF94-0F27-4E83-8A43-C653DF369B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68978AB-22E8-4A01-88A8-486B24E0355D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31695" yWindow="4260" windowWidth="21630" windowHeight="11250" activeTab="1" xr2:uid="{FE987179-052C-4F3A-8FA3-1C58C67AD5EF}"/>
+    <workbookView xWindow="792" yWindow="1200" windowWidth="21636" windowHeight="11256" activeTab="1" xr2:uid="{FE987179-052C-4F3A-8FA3-1C58C67AD5EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -531,38 +531,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -576,14 +552,38 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BE8623-A66F-4782-8715-B88421B969CA}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101:J105"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -938,65 +938,65 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="11">
         <v>45185</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1031,16 +1031,16 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1049,56 +1049,56 @@
       <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
+      <c r="H7" s="20"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1107,56 +1107,56 @@
       <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1165,56 +1165,56 @@
       <c r="F13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="5" t="s">
+      <c r="H13" s="22"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="6"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="25"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="9"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1223,108 +1223,108 @@
       <c r="F16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="5" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="6"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="9"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="24"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="11">
         <v>45185</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="25" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1359,226 +1359,226 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5" t="s">
+      <c r="H26" s="20"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="2"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="2"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="24"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="24"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="11">
         <v>45185</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="21"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="13"/>
     </row>
     <row r="45" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -1613,268 +1613,268 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5" t="s">
+      <c r="H46" s="20"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
     </row>
     <row r="49" spans="1:10" ht="69" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5" t="s">
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
     </row>
     <row r="52" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F52" s="2"/>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="5" t="s">
+      <c r="H52" s="22"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="6"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="15"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="9"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="16"/>
     </row>
     <row r="55" spans="1:10" ht="69" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5" t="s">
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="24"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="24"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="18"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="10"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B63" s="11">
         <v>45185</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="21"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="13"/>
     </row>
     <row r="65" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -1909,284 +1909,284 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="20" t="s">
         <v>52</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H66" s="8"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5" t="s">
+      <c r="H66" s="20"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
       <c r="E67" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
     </row>
     <row r="69" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F69" s="2"/>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5" t="s">
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
     </row>
     <row r="72" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="20" t="s">
         <v>66</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F72" s="2"/>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H72" s="10"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="5" t="s">
+      <c r="H72" s="22"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
       <c r="E73" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="6"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="15"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="9"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="16"/>
     </row>
     <row r="75" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="20" t="s">
         <v>68</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F75" s="2"/>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5" t="s">
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
       <c r="E76" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="24"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="7"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="24"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="7"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="18"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="10"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="19">
+      <c r="B83" s="11">
         <v>45185</v>
       </c>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="21"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="13"/>
     </row>
     <row r="85" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
@@ -2221,372 +2221,511 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="20" t="s">
         <v>73</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F86" s="2"/>
-      <c r="G86" s="8" t="s">
+      <c r="G86" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="H86" s="8"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5" t="s">
+      <c r="H86" s="20"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
       <c r="E87" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F87" s="2"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
     </row>
     <row r="88" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
       <c r="E88" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F88" s="2"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
     </row>
     <row r="89" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="20" t="s">
         <v>79</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F89" s="2"/>
-      <c r="G89" s="8" t="s">
+      <c r="G89" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5" t="s">
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
       <c r="E90" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F90" s="2"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
     </row>
     <row r="91" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
       <c r="E91" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G91" s="8"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
     </row>
     <row r="92" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
       <c r="E92" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F92" s="2"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
     </row>
     <row r="93" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="20" t="s">
         <v>83</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F93" s="2"/>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="H93" s="10"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13" t="s">
+      <c r="H93" s="22"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
       <c r="E94" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F94" s="2"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
     </row>
     <row r="95" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
       <c r="E95" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G95" s="8"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
     </row>
     <row r="96" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
       <c r="E96" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F96" s="2"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
     </row>
     <row r="97" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="20" t="s">
         <v>89</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F97" s="2"/>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5" t="s">
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
       <c r="E98" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G98" s="8"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
     </row>
     <row r="99" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
       <c r="E99" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G99" s="8"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
     </row>
     <row r="100" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A100" s="7"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
       <c r="E100" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F100" s="2"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
     </row>
     <row r="101" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="20" t="s">
         <v>95</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F101" s="2"/>
-      <c r="G101" s="8" t="s">
+      <c r="G101" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5" t="s">
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
+      <c r="A102" s="21"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
       <c r="E102" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G102" s="8"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
     </row>
     <row r="103" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
+      <c r="A103" s="21"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
       <c r="E103" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G103" s="8"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
     </row>
     <row r="104" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
+      <c r="A104" s="21"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
       <c r="E104" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F104" s="2"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
     </row>
     <row r="105" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
+      <c r="A105" s="21"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
       <c r="E105" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F105" s="2"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="188">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H97:H100"/>
+    <mergeCell ref="I97:I100"/>
+    <mergeCell ref="J97:J100"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="C101:C105"/>
+    <mergeCell ref="D101:D105"/>
+    <mergeCell ref="G101:G105"/>
+    <mergeCell ref="H101:H105"/>
+    <mergeCell ref="I101:I105"/>
+    <mergeCell ref="J101:J105"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="D97:D100"/>
+    <mergeCell ref="G97:G100"/>
+    <mergeCell ref="H89:H92"/>
+    <mergeCell ref="I89:I92"/>
+    <mergeCell ref="J89:J92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="H93:H96"/>
+    <mergeCell ref="I93:I96"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="B82:J82"/>
+    <mergeCell ref="B83:J83"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="B80:J80"/>
+    <mergeCell ref="B81:J81"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="J72:J74"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="J66:J68"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="B61:J61"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="J26:J28"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="G7:G9"/>
@@ -2610,158 +2749,19 @@
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="H49:H51"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="B60:J60"/>
-    <mergeCell ref="B61:J61"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="B63:J63"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="J66:J68"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="J72:J74"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="B80:J80"/>
-    <mergeCell ref="B81:J81"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="B82:J82"/>
-    <mergeCell ref="B83:J83"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="H89:H92"/>
-    <mergeCell ref="I89:I92"/>
-    <mergeCell ref="J89:J92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="H93:H96"/>
-    <mergeCell ref="I93:I96"/>
-    <mergeCell ref="J93:J96"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="G89:G92"/>
-    <mergeCell ref="H97:H100"/>
-    <mergeCell ref="I97:I100"/>
-    <mergeCell ref="J97:J100"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="C101:C105"/>
-    <mergeCell ref="D101:D105"/>
-    <mergeCell ref="G101:G105"/>
-    <mergeCell ref="H101:H105"/>
-    <mergeCell ref="I101:I105"/>
-    <mergeCell ref="J101:J105"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="G97:G100"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="G10:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
